--- a/PROJECTS/ERP/Documents/Master Data & Transaction-Final.xlsx
+++ b/PROJECTS/ERP/Documents/Master Data & Transaction-Final.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -399,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,18 +414,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,7 +522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,37 +733,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" customWidth="1"/>
-    <col min="10" max="11" width="21.77734375" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" customWidth="1"/>
-    <col min="18" max="18" width="21.88671875" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" customWidth="1"/>
-    <col min="20" max="20" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
@@ -782,35 +789,35 @@
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="7" t="s">
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="5"/>
       <c r="L3" t="s">
         <v>58</v>
       </c>
@@ -826,17 +833,17 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
       <c r="T3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -865,8 +872,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -900,8 +907,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -926,18 +933,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" t="s">
         <v>38</v>
       </c>
@@ -960,7 +967,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -987,17 +994,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="K9" t="s">
         <v>50</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -1043,7 +1050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
@@ -1111,10 +1118,10 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="5"/>
       <c r="L13" t="s">
         <v>63</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>19</v>
       </c>
@@ -1153,13 +1160,13 @@
       <c r="P14" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="Q14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-    </row>
-    <row r="15" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>25</v>
       </c>
@@ -1182,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>27</v>
       </c>
@@ -1219,11 +1226,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
+    <row r="18" spans="4:19" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5"/>
       <c r="J18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="4:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:19" ht="45" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>32</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
         <v>19</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="L24" t="s">
         <v>70</v>
       </c>
@@ -1324,7 +1331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
         <v>19</v>
       </c>
@@ -1335,12 +1342,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="R27" t="s">
         <v>94</v>
       </c>
@@ -1348,12 +1355,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="S28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="R29" t="s">
         <v>95</v>
       </c>
@@ -1361,12 +1368,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="S30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="R31" t="s">
         <v>96</v>
       </c>
@@ -1374,12 +1381,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="S32" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R33" t="s">
         <v>97</v>
       </c>
@@ -1387,12 +1394,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q35" t="s">
         <v>98</v>
       </c>
@@ -1403,12 +1410,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R37" t="s">
         <v>90</v>
       </c>
@@ -1416,12 +1423,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R39" t="s">
         <v>91</v>
       </c>
@@ -1429,12 +1436,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>92</v>
       </c>
@@ -1442,12 +1449,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R43" t="s">
         <v>93</v>
       </c>
@@ -1455,12 +1462,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R45" t="s">
         <v>94</v>
       </c>
@@ -1468,12 +1475,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R47" t="s">
         <v>95</v>
       </c>
@@ -1481,12 +1488,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R49" t="s">
         <v>96</v>
       </c>
@@ -1494,12 +1501,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S50" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R51" t="s">
         <v>97</v>
       </c>
@@ -1507,12 +1514,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S52" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q53" t="s">
         <v>101</v>
       </c>
@@ -1523,12 +1530,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R55" t="s">
         <v>89</v>
       </c>
@@ -1536,12 +1543,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q57" t="s">
         <v>103</v>
       </c>
@@ -1552,12 +1559,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="17:19" x14ac:dyDescent="0.25">
       <c r="R59" t="s">
         <v>105</v>
       </c>
@@ -1565,18 +1572,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="17:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="17:19" x14ac:dyDescent="0.25">
       <c r="S60" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B2:C2"/>
@@ -1590,6 +1592,11 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PROJECTS/ERP/Documents/Master Data & Transaction-Final.xlsx
+++ b/PROJECTS/ERP/Documents/Master Data & Transaction-Final.xlsx
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -417,16 +417,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="7" t="s">
         <v>4</v>
       </c>
@@ -799,25 +802,25 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="6"/>
       <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="6"/>
       <c r="L3" t="s">
         <v>58</v>
       </c>
@@ -833,17 +836,17 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -873,7 +876,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -908,7 +911,7 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
@@ -934,17 +937,17 @@
       </c>
     </row>
     <row r="7" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>38</v>
       </c>
@@ -968,7 +971,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
@@ -995,16 +998,16 @@
       </c>
     </row>
     <row r="9" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="6"/>
       <c r="K9" t="s">
         <v>50</v>
       </c>
@@ -1025,7 +1028,7 @@
       </c>
     </row>
     <row r="10" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
@@ -1051,7 +1054,7 @@
       </c>
     </row>
     <row r="11" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
@@ -1080,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D12" t="s">
@@ -1106,7 +1109,7 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D13" t="s">
@@ -1118,10 +1121,10 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="6"/>
       <c r="L13" t="s">
         <v>63</v>
       </c>
@@ -1160,11 +1163,11 @@
       <c r="P14" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="2:20" ht="28.9" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
@@ -1227,10 +1230,10 @@
       </c>
     </row>
     <row r="18" spans="4:19" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="J18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1579,6 +1582,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="B2:C2"/>
@@ -1592,11 +1600,6 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
